--- a/biology/Médecine/Farid_Latreche/Farid_Latreche.xlsx
+++ b/biology/Médecine/Farid_Latreche/Farid_Latreche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Farid Latreche (en arabe : فريد لطرش), né en 1961 à Constantine[1], est un judoka et médecin algérien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farid Latreche (en arabe : فريد لطرش), né en 1961 à Constantine, est un judoka et médecin algérien.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Farid Latreche participe aux Championnats du monde de judo 1981 à Maastricht ; éliminé par le Britannique Neil Adams en quarts de finale, il perd en repêchages contre le Mongol Ravdangiin Davaadalai[2].
-Il est médaillé d'or dans la catégorie des moins de 78 kg[3] et médaillé d'argent par équipes aux Championnats d'Afrique de judo 1983 à Dakar[4].
-Médecin de formation avec un doctorat à l'université Mentouri de Constantine en 1988, il est depuis médecin urgentiste au secteur santitaire de Constantine. Il lie aussi son travail au judo, étant de février 2009 à mars 2013 membre du bureau fédéral de la Fédération algérienne de judo (FAJ) chargé de la commission médicale,  puis médecin fédéral de la FAJ. Il a également été directeur des techniques sanitaires de la clinique Mentouri de Constantine de 2009 à 2013[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farid Latreche participe aux Championnats du monde de judo 1981 à Maastricht ; éliminé par le Britannique Neil Adams en quarts de finale, il perd en repêchages contre le Mongol Ravdangiin Davaadalai.
+Il est médaillé d'or dans la catégorie des moins de 78 kg et médaillé d'argent par équipes aux Championnats d'Afrique de judo 1983 à Dakar.
+Médecin de formation avec un doctorat à l'université Mentouri de Constantine en 1988, il est depuis médecin urgentiste au secteur santitaire de Constantine. Il lie aussi son travail au judo, étant de février 2009 à mars 2013 membre du bureau fédéral de la Fédération algérienne de judo (FAJ) chargé de la commission médicale,  puis médecin fédéral de la FAJ. Il a également été directeur des techniques sanitaires de la clinique Mentouri de Constantine de 2009 à 2013.
 </t>
         </is>
       </c>
